--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>hours done</t>
   </si>
@@ -25,13 +25,17 @@
   <si>
     <t>lessons planned</t>
   </si>
+  <si>
+    <t>STATUS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="HH:mm"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -62,22 +66,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="n" s="1">
+        <v>43862.0</v>
+      </c>
+      <c r="D1" t="n" s="2">
+        <v>43862.708333333336</v>
+      </c>
+      <c r="E1" t="n" s="2">
+        <v>43862.770833333336</v>
+      </c>
+      <c r="F1" t="n">
+        <f>IF(B1="done",HOUR(E1-D1) + MINUTE(E1-D1)/60,"")</f>
+        <v>0.0</v>
+      </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -87,30 +105,65 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="n" s="1">
+        <v>43863.0</v>
+      </c>
+      <c r="D2" t="n" s="2">
+        <v>43863.708333333336</v>
+      </c>
+      <c r="E2" t="n" s="2">
+        <v>43863.770833333336</v>
+      </c>
+      <c r="F2" t="n">
+        <f>IF(B2="done",HOUR(E2-D2) + MINUTE(E2-D2)/60,"")</f>
+        <v>0.0</v>
+      </c>
       <c r="H2" t="s">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="1">
         <v>43864.0</v>
       </c>
+      <c r="D3" t="n" s="2">
+        <v>43864.708333333336</v>
+      </c>
+      <c r="E3" t="n" s="2">
+        <v>43864.770833333336</v>
+      </c>
+      <c r="F3" t="n">
+        <f>IF(B3="done",HOUR(E3-D3) + MINUTE(E3-D3)/60,"")</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="n">
+        <f>COUNTIF(B1:B57,"done")</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="H5" t="s">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <f>IF(I1=I2,"COMPLETED","IN PROGRESS")</f>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
